--- a/src/order.xlsx
+++ b/src/order.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>0001</t>
   </si>
@@ -26,13 +26,37 @@
     <t>桂林电子科技大学花江校区</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>震旦 AURORA全自动商务办公碎纸机</t>
+  </si>
+  <si>
+    <t>4级保密 手动10张/自动150张 60分钟 32.2L AS150CM</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>腾讯极光T1投影仪家用办公 激光电视 微型迷你便携投影机</t>
   </si>
   <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>震旦 AURORA全自动商务办公碎纸机</t>
+    <t>激光自动对焦 ，内置电池，防尘滑盖</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>企业微信云考勤机WX108</t>
+  </si>
+  <si>
+    <t>支持人脸指纹识别/手机打卡/无接触考勤 智慧刷脸机复工打卡更安全</t>
   </si>
 </sst>
 </file>
@@ -77,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,16 +120,31 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="n">
-        <v>1499.0</v>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1599.0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1599.0</v>
+      </c>
+      <c r="K1" t="n">
+        <v>44201.718453946756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -116,11 +155,61 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>1599.0</v>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1499.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1499.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44201.718453946756</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44201.718453946756</v>
       </c>
     </row>
   </sheetData>

--- a/src/order.xlsx
+++ b/src/order.xlsx
@@ -12,7 +12,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>商品id</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>商品描述</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>购买数量</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
   <si>
     <t>0001</t>
   </si>
@@ -26,6 +59,30 @@
     <t>桂林电子科技大学花江校区</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>腾讯极光T1投影仪家用办公 激光电视 微型迷你便携投影机</t>
+  </si>
+  <si>
+    <t>激光自动对焦 ，内置电池，防尘滑盖</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>企业微信云考勤机WX108</t>
+  </si>
+  <si>
+    <t>支持人脸指纹识别/手机打卡/无接触考勤 智慧刷脸机复工打卡更安全</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
@@ -33,30 +90,6 @@
   </si>
   <si>
     <t>4级保密 手动10张/自动150张 60分钟 32.2L AS150CM</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>腾讯极光T1投影仪家用办公 激光电视 微型迷你便携投影机</t>
-  </si>
-  <si>
-    <t>激光自动对焦 ，内置电池，防尘滑盖</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>企业微信云考勤机WX108</t>
-  </si>
-  <si>
-    <t>支持人脸指纹识别/手机打卡/无接触考勤 智慧刷脸机复工打卡更安全</t>
   </si>
 </sst>
 </file>
@@ -101,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,87 +162,122 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="n">
-        <v>1599.0</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J1" t="n">
-        <v>1599.0</v>
-      </c>
-      <c r="K1" t="n">
-        <v>44201.718453946756</v>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
         <v>1499.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J2" t="n">
-        <v>1499.0</v>
+        <v>5996.0</v>
       </c>
       <c r="K2" t="n">
-        <v>44201.718453946756</v>
+        <v>44219.895334444445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
         <v>449.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="J3" t="n">
-        <v>449.0</v>
+        <v>2245.0</v>
       </c>
       <c r="K3" t="n">
-        <v>44201.718453946756</v>
+        <v>44219.895334444445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1599.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4797.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44219.895334444445</v>
       </c>
     </row>
   </sheetData>

--- a/src/order.xlsx
+++ b/src/order.xlsx
@@ -201,13 +201,13 @@
         <v>1499.0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="J2" t="n">
-        <v>5996.0</v>
+        <v>4497.0</v>
       </c>
       <c r="K2" t="n">
-        <v>44219.895334444445</v>
+        <v>44227.63066796296</v>
       </c>
     </row>
     <row r="3">
@@ -236,13 +236,13 @@
         <v>449.0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J3" t="n">
-        <v>2245.0</v>
+        <v>1796.0</v>
       </c>
       <c r="K3" t="n">
-        <v>44219.895334444445</v>
+        <v>44227.63066796296</v>
       </c>
     </row>
     <row r="4">
@@ -271,13 +271,13 @@
         <v>1599.0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="J4" t="n">
-        <v>4797.0</v>
+        <v>7995.0</v>
       </c>
       <c r="K4" t="n">
-        <v>44219.895334444445</v>
+        <v>44227.63066796296</v>
       </c>
     </row>
   </sheetData>
